--- a/biology/Zoologie/Cottus_perifretum/Cottus_perifretum.xlsx
+++ b/biology/Zoologie/Cottus_perifretum/Cottus_perifretum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cottus perifretum est une espèce de poissons dulçaquicoles de la famille des Cottidae.
 </t>
@@ -511,10 +523,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Cottus perifretum a été décrite en 2005 par les ichtyologistes Jörg Freyhof, Maurice Kottelat et Arne Nolte (d)[1],[2].
-Ce taxon porte en français les noms vernaculaires ou normalisés suivants[1],[3] : Bavard, Chabot, Chabot celtique, Chabot fluviatile, Têtard.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Cottus perifretum a été décrite en 2005 par les ichtyologistes Jörg Freyhof, Maurice Kottelat et Arne Nolte (d),.
+Ce taxon porte en français les noms vernaculaires ou normalisés suivants, : Bavard, Chabot, Chabot celtique, Chabot fluviatile, Têtard.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cottus perifretum peut mesurer jusqu'à 134 mm[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cottus perifretum peut mesurer jusqu'à 134 mm.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Jörg Freyhof, Maurice Kottelat et Arne Nolte, « Taxonomic diversity of European Cottus with description of eight new species (Teleostei: Cottidae) », Ichthyological Exploration of Freshwaters, vol. 16, no 2,‎ 1er juin 2005, p. 107-172 (ISSN 0936-9902)</t>
         </is>
